--- a/src/test/input/used/PM/ProductManagment-Dep16may.xlsx
+++ b/src/test/input/used/PM/ProductManagment-Dep16may.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse_workspace\LC_GEN\src\test\input\group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178CCDB1-ACAA-4D5F-9B05-F12E891BCB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1563B8D5-E08A-42EA-9C6E-A99EFA6AD20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B4-PM" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Get Term Deposit Product with all properties </t>
+    <t>Get Term Deposit Product with all properties</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1815,10 +1815,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:IV26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="14.5" customHeight="1"/>
@@ -1884,7 +1885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1">
+    <row r="2" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1924,7 +1925,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" ht="26" customHeight="1">
+    <row r="3" spans="1:15" ht="26" hidden="1" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
@@ -1966,7 +1967,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
+    <row r="4" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
@@ -2006,7 +2007,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" ht="26" customHeight="1">
+    <row r="5" spans="1:15" ht="26" hidden="1" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -2048,7 +2049,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1">
+    <row r="6" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -2088,7 +2089,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
+    <row r="7" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
@@ -2130,7 +2131,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
+    <row r="8" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -2170,7 +2171,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
+    <row r="9" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
@@ -2212,7 +2213,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
+    <row r="10" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2252,7 +2253,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -2294,7 +2295,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
+    <row r="12" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -2334,7 +2335,7 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
+    <row r="13" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -2376,7 +2377,7 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
+    <row r="14" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
@@ -2458,7 +2459,7 @@
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
+    <row r="16" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
@@ -2477,7 +2478,7 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1">
+    <row r="17" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="10"/>
@@ -2494,7 +2495,7 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1">
+    <row r="18" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -2511,7 +2512,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1">
+    <row r="19" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -2528,7 +2529,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1">
+    <row r="20" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2545,7 +2546,7 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1">
+    <row r="21" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -2562,7 +2563,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1">
+    <row r="22" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -2579,7 +2580,7 @@
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1">
+    <row r="23" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2596,7 +2597,7 @@
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
     </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1">
+    <row r="24" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2613,7 +2614,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="1:15" ht="18" customHeight="1">
+    <row r="25" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="23"/>
@@ -2630,7 +2631,7 @@
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
     </row>
-    <row r="26" spans="1:15" ht="18" customHeight="1">
+    <row r="26" spans="1:15" ht="18" hidden="1" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="18"/>
       <c r="C26" s="8"/>
@@ -2648,7 +2649,13 @@
       <c r="O26" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:IV26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:IV26" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Get Term Deposit Product with all properties"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
